--- a/CP/T-beta-CP/stress/init_test.xlsx
+++ b/CP/T-beta-CP/stress/init_test.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\computer_data\CP\T-beta-CP\stress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A研究生\computer_data\CP\T-beta-CP\stress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1596B4C3-721D-4E49-BE34-9B207D00536C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE69B5F-E41D-453F-9F00-5687486E7AC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -374,15 +374,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -402,7 +402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.05</v>
       </c>
@@ -425,7 +425,7 @@
         <v>5.9699999999999996E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.1</v>
       </c>
@@ -448,7 +448,7 @@
         <v>2.96E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.15</v>
       </c>
@@ -471,7 +471,7 @@
         <v>2.7599999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.2</v>
       </c>
@@ -494,7 +494,7 @@
         <v>3.5699999999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.25</v>
       </c>
@@ -517,7 +517,7 @@
         <v>4.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.3</v>
       </c>
@@ -538,6 +538,92 @@
       </c>
       <c r="G7">
         <v>3.5100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>5.0625137752217801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>5.0625137752217801</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f>N11*L10</f>
+        <v>5.0625137752217801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>5.0625137752217801</v>
+      </c>
+      <c r="N12">
+        <v>1.05</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ref="O12:O17" si="0">N12*L11</f>
+        <v>5.315639463982869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>5.0625137752217801</v>
+      </c>
+      <c r="N13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>5.5687651527439588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>5.0625137752217801</v>
+      </c>
+      <c r="N14">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>5.8218908415050468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>5.0625137752217801</v>
+      </c>
+      <c r="N15">
+        <v>1.2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>6.0750165302661356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>5.0625137752217801</v>
+      </c>
+      <c r="N16">
+        <v>1.25</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>6.3281422190272254</v>
+      </c>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>1.3</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>6.5812679077883143</v>
       </c>
     </row>
   </sheetData>

--- a/CP/T-beta-CP/stress/init_test.xlsx
+++ b/CP/T-beta-CP/stress/init_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A研究生\computer_data\CP\T-beta-CP\stress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE69B5F-E41D-453F-9F00-5687486E7AC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B006D1AF-5D10-413E-B55C-439756B33636}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="O11" sqref="O11:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -553,7 +553,6 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <f>N11*L10</f>
         <v>5.0625137752217801</v>
       </c>
     </row>
@@ -565,7 +564,6 @@
         <v>1.05</v>
       </c>
       <c r="O12">
-        <f t="shared" ref="O12:O17" si="0">N12*L11</f>
         <v>5.315639463982869</v>
       </c>
     </row>
@@ -577,7 +575,6 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="O13">
-        <f t="shared" si="0"/>
         <v>5.5687651527439588</v>
       </c>
     </row>
@@ -589,7 +586,6 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="O14">
-        <f t="shared" si="0"/>
         <v>5.8218908415050468</v>
       </c>
     </row>
@@ -601,7 +597,6 @@
         <v>1.2</v>
       </c>
       <c r="O15">
-        <f t="shared" si="0"/>
         <v>6.0750165302661356</v>
       </c>
     </row>
@@ -613,7 +608,6 @@
         <v>1.25</v>
       </c>
       <c r="O16">
-        <f t="shared" si="0"/>
         <v>6.3281422190272254</v>
       </c>
     </row>
@@ -622,7 +616,6 @@
         <v>1.3</v>
       </c>
       <c r="O17">
-        <f t="shared" si="0"/>
         <v>6.5812679077883143</v>
       </c>
     </row>

--- a/CP/T-beta-CP/stress/init_test.xlsx
+++ b/CP/T-beta-CP/stress/init_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\computer_data\CP\T-beta-CP\stress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1596B4C3-721D-4E49-BE34-9B207D00536C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F0174E-5C30-4B57-B23B-D2111A87C494}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
